--- a/main/resources/tasks.xlsx
+++ b/main/resources/tasks.xlsx
@@ -27,66 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>AssetTag</t>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>AssigneeID</t>
   </si>
   <si>
-    <t>AllocatedToEmployeeID</t>
+    <t>Priority</t>
   </si>
   <si>
-    <t>PurchaseDate</t>
+    <t>DueDate</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Develop login screen</t>
   </si>
   <si>
-    <t>NTB-001</t>
+    <t>High</t>
   </si>
   <si>
-    <t>Notebook Dell XPS 15</t>
+    <t>Setup database</t>
   </si>
   <si>
-    <t>Electronics</t>
+    <t>Initial requirement analysis</t>
   </si>
   <si>
-    <t>In Use</t>
+    <t>Medium</t>
   </si>
   <si>
-    <t>NTB-002</t>
-  </si>
-  <si>
-    <t>MON-001</t>
-  </si>
-  <si>
-    <t>Monitor Dell 27"</t>
-  </si>
-  <si>
-    <t>MON-002</t>
-  </si>
-  <si>
-    <t>CHR-001</t>
-  </si>
-  <si>
-    <t>Cadeira Executiva</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>NTB-003</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo T14</t>
-  </si>
-  <si>
-    <t>In Storage</t>
+    <t>Unit tests for login</t>
   </si>
 </sst>
 </file>
@@ -707,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +691,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1259,7 +1241,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1272,7 +1254,7 @@
     <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:6">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,123 +1274,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>202</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="4">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="2">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
         <v>202</v>
       </c>
-      <c r="E2" s="4">
-        <v>44936</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45242</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>204</v>
-      </c>
-      <c r="E3" s="4">
-        <v>44936</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
-    <row r="4" ht="33" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>202</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44941</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="33" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>204</v>
-      </c>
-      <c r="E5" s="4">
-        <v>44941</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="33" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <v>202</v>
-      </c>
-      <c r="E6" s="4">
-        <v>44931</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4">
-        <v>44885</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="7" ht="16.5" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
